--- a/INVENTARIO FINAL AUTOPARTES Phyton.xlsx
+++ b/INVENTARIO FINAL AUTOPARTES Phyton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61fff6856ee71ad0/Desktop/autopartes_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{A9ACAC2D-7589-4C47-A2AD-9BC2466CC140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A61D0928-E26F-4BA5-9F4E-482BDB84328D}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{A9ACAC2D-7589-4C47-A2AD-9BC2466CC140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F6CEBE9-A833-4908-B76C-29FE841DD1A9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14866" uniqueCount="4333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14866" uniqueCount="4334">
   <si>
     <t>Código</t>
   </si>
@@ -13039,6 +13039,9 @@
   </si>
   <si>
     <t>Disponible</t>
+  </si>
+  <si>
+    <t>Vendido</t>
   </si>
 </sst>
 </file>
@@ -13590,8 +13593,8 @@
   <dimension ref="A1:X2216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A723" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J730" sqref="J730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36938,7 +36941,7 @@
         <v>3636</v>
       </c>
       <c r="J728" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="729" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -36970,7 +36973,7 @@
         <v>3636</v>
       </c>
       <c r="J729" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="730" spans="1:10" ht="30" x14ac:dyDescent="0.25">

--- a/INVENTARIO FINAL AUTOPARTES Phyton.xlsx
+++ b/INVENTARIO FINAL AUTOPARTES Phyton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61fff6856ee71ad0/Desktop/autopartes_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{A9ACAC2D-7589-4C47-A2AD-9BC2466CC140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F6CEBE9-A833-4908-B76C-29FE841DD1A9}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{A9ACAC2D-7589-4C47-A2AD-9BC2466CC140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7012FEDB-7078-4B65-8C54-45BE835EF69D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Escaneo c precios de venta" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Escaneo c precios de venta'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Escaneo c precios de venta'!$A$1:$J$2169</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -13056,11 +13056,18 @@
     <numFmt numFmtId="168" formatCode="dd/mm"/>
     <numFmt numFmtId="169" formatCode="d/m"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13196,160 +13203,161 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13592,14 +13600,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X2216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A723" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J730" sqref="J730"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J346" sqref="J346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
@@ -24637,7 +24645,7 @@
         <v>250</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>3291</v>
+        <v>3321</v>
       </c>
       <c r="C344" s="13" t="s">
         <v>3420</v>
@@ -24669,7 +24677,7 @@
         <v>251</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>3403</v>
+        <v>3321</v>
       </c>
       <c r="C345" s="13" t="s">
         <v>252</v>
@@ -24692,8 +24700,8 @@
       <c r="I345" s="8" t="s">
         <v>3134</v>
       </c>
-      <c r="J345" t="s">
-        <v>4332</v>
+      <c r="J345" s="63" t="s">
+        <v>4333</v>
       </c>
     </row>
     <row r="346" spans="1:12" ht="30" x14ac:dyDescent="0.25">

--- a/INVENTARIO FINAL AUTOPARTES Phyton.xlsx
+++ b/INVENTARIO FINAL AUTOPARTES Phyton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61fff6856ee71ad0/Desktop/autopartes_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{A9ACAC2D-7589-4C47-A2AD-9BC2466CC140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D37ACE3B-0A2C-4EB0-9354-78AB1D16FC90}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{A9ACAC2D-7589-4C47-A2AD-9BC2466CC140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04EF3BAB-E2C2-4D87-BA4A-5602233C83FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13600,9 +13600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X2215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J414" sqref="J414"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A844" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J852" sqref="J852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40853,7 +40853,7 @@
         <v>3674</v>
       </c>
       <c r="J850" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="851" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -40917,7 +40917,7 @@
         <v>3674</v>
       </c>
       <c r="J852" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="853" spans="1:10" ht="30" x14ac:dyDescent="0.25">

--- a/INVENTARIO FINAL AUTOPARTES Phyton.xlsx
+++ b/INVENTARIO FINAL AUTOPARTES Phyton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61fff6856ee71ad0/Desktop/autopartes_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{A9ACAC2D-7589-4C47-A2AD-9BC2466CC140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04EF3BAB-E2C2-4D87-BA4A-5602233C83FE}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{A9ACAC2D-7589-4C47-A2AD-9BC2466CC140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2103CC27-437D-44F4-99AD-81FE3ABD9CAB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13056,7 +13056,7 @@
     <numFmt numFmtId="168" formatCode="dd/mm"/>
     <numFmt numFmtId="169" formatCode="d/m"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13074,16 +13074,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13095,11 +13105,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF474747"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -13203,160 +13215,161 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -13600,9 +13613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X2215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A844" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J852" sqref="J852"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18938,8 +18950,8 @@
       <c r="I165" s="8" t="s">
         <v>3134</v>
       </c>
-      <c r="J165" t="s">
-        <v>4332</v>
+      <c r="J165" s="64" t="s">
+        <v>4333</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -19098,8 +19110,8 @@
       <c r="I170" s="8" t="s">
         <v>3134</v>
       </c>
-      <c r="J170" t="s">
-        <v>4332</v>
+      <c r="J170" s="64" t="s">
+        <v>4333</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -35610,8 +35622,8 @@
       <c r="I686" s="8" t="s">
         <v>3475</v>
       </c>
-      <c r="J686" t="s">
-        <v>4332</v>
+      <c r="J686" s="64" t="s">
+        <v>4333</v>
       </c>
     </row>
     <row r="687" spans="1:10" x14ac:dyDescent="0.25">
@@ -40276,8 +40288,8 @@
       <c r="I832" s="8" t="s">
         <v>3674</v>
       </c>
-      <c r="J832" t="s">
-        <v>4332</v>
+      <c r="J832" s="64" t="s">
+        <v>4333</v>
       </c>
     </row>
     <row r="833" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -40404,8 +40416,8 @@
       <c r="I836" s="8" t="s">
         <v>3674</v>
       </c>
-      <c r="J836" t="s">
-        <v>4332</v>
+      <c r="J836" s="64" t="s">
+        <v>4333</v>
       </c>
     </row>
     <row r="837" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -40980,8 +40992,8 @@
       <c r="I854" s="8" t="s">
         <v>3674</v>
       </c>
-      <c r="J854" t="s">
-        <v>4332</v>
+      <c r="J854" s="64" t="s">
+        <v>4333</v>
       </c>
     </row>
     <row r="855" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -41012,8 +41024,8 @@
       <c r="I855" s="8" t="s">
         <v>3674</v>
       </c>
-      <c r="J855" t="s">
-        <v>4332</v>
+      <c r="J855" s="64" t="s">
+        <v>4333</v>
       </c>
     </row>
     <row r="856" spans="1:10" x14ac:dyDescent="0.25">
@@ -43446,7 +43458,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:10" ht="19.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A932" s="1" t="s">
         <v>2689</v>
       </c>
@@ -62553,8 +62565,8 @@
       <c r="I1529" s="8" t="s">
         <v>3870</v>
       </c>
-      <c r="J1529" t="s">
-        <v>4332</v>
+      <c r="J1529" s="64" t="s">
+        <v>4333</v>
       </c>
     </row>
     <row r="1530" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -62585,8 +62597,8 @@
       <c r="I1530" s="8" t="s">
         <v>3870</v>
       </c>
-      <c r="J1530" t="s">
-        <v>4332</v>
+      <c r="J1530" s="64" t="s">
+        <v>4333</v>
       </c>
     </row>
     <row r="1531" spans="1:10" x14ac:dyDescent="0.25">
@@ -77127,8 +77139,8 @@
       <c r="I1985" s="8" t="s">
         <v>3864</v>
       </c>
-      <c r="J1985" t="s">
-        <v>4332</v>
+      <c r="J1985" s="64" t="s">
+        <v>4333</v>
       </c>
     </row>
     <row r="1986" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -80888,8 +80900,8 @@
       <c r="I2103" s="8" t="s">
         <v>3923</v>
       </c>
-      <c r="J2103" t="s">
-        <v>4332</v>
+      <c r="J2103" s="64" t="s">
+        <v>4333</v>
       </c>
     </row>
     <row r="2104" spans="1:10" x14ac:dyDescent="0.25">
@@ -80920,8 +80932,8 @@
       <c r="I2104" s="8" t="s">
         <v>3923</v>
       </c>
-      <c r="J2104" t="s">
-        <v>4332</v>
+      <c r="J2104" s="64" t="s">
+        <v>4333</v>
       </c>
     </row>
     <row r="2105" spans="1:10" x14ac:dyDescent="0.25">
@@ -83460,5 +83472,8 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H11:H12" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>